--- a/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,96; 14,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>12,64; 19,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,5; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>3,99; 13,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>15,34; 22,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>14,1; 21,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>9,64; 16,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>15,37; 28,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,05; 17,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,25; 19,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,62; 14,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>10,34; 18,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>10,76; 15,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>15,0; 20,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>12,39; 18,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>8,39; 16,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>18,67; 25,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>19,66; 26,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>14,67; 20,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,14; 24,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>15,17; 19,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,06; 22,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>14,51; 18,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,84; 19,2</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,64; 24,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>20,08; 26,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,99; 20,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>15,28; 22,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>21,61; 28,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,53; 36,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>19,57; 25,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>17,42; 22,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>21,06; 25,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>25,76; 30,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,04; 22,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>17,02; 21,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>13,66; 20,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>19,11; 25,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,81; 26,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>15,6; 23,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>27,04; 35,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>31,49; 39,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>26,72; 34,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>23,81; 30,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,46; 26,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>26,3; 31,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>24,06; 29,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>20,73; 26,05</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>20,31; 29,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>22,77; 31,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>17,27; 25,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>21,31; 28,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>28,2; 37,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>34,61; 44,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>29,27; 38,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>28,21; 34,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>25,95; 32,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>30,01; 36,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>25,05; 31,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>25,76; 30,27</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,16%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>23,3; 31,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,04; 32,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>19,48; 25,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,5; 30,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>28,2; 35,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>38,17; 45,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,43; 40,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>37,22; 61,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>26,75; 32,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>33,35; 38,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,27; 33,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>33,11; 50,35</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,28; 20,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>20,91; 23,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,46; 21,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,0; 28,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,02; 34,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,2; 28,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,28; 36,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,59; 23,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,56; 28,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,96; 24,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>23,65; 29,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>30,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,83</t>
+          <t>26,77; 35,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,3</t>
+          <t>29,51; 38,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,25</t>
+          <t>28,51; 37,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,14</t>
+          <t>18,33; 32,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 22,36</t>
+          <t>37,58; 46,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,49</t>
+          <t>39,89; 49,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,06</t>
+          <t>38,05; 47,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 28,21</t>
+          <t>29,26; 43,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 17,53</t>
+          <t>33,19; 39,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 19,39</t>
+          <t>35,68; 42,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,03</t>
+          <t>34,61; 41,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 18,01</t>
+          <t>25,26; 35,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>36,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,84</t>
+          <t>30,22; 37,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,75</t>
+          <t>38,08; 45,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,64</t>
+          <t>40,87; 49,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,45</t>
+          <t>26,46; 37,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 25,19</t>
+          <t>43,03; 50,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,66; 26,45</t>
+          <t>46,98; 55,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 20,77</t>
+          <t>42,65; 50,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,58</t>
+          <t>34,46; 46,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 19,3</t>
+          <t>37,28; 42,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,93</t>
+          <t>43,51; 49,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,62</t>
+          <t>42,7; 48,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 19,2</t>
+          <t>32,43; 40,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>42,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,66</t>
+          <t>38,29; 46,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,25</t>
+          <t>43,48; 51,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,94</t>
+          <t>42,89; 50,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 22,36</t>
+          <t>30,25; 38,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 28,12</t>
+          <t>53,56; 61,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 36,96</t>
+          <t>52,84; 60,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,64</t>
+          <t>44,05; 51,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,89</t>
+          <t>37,65; 44,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,06; 25,81</t>
+          <t>47,8; 53,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,96</t>
+          <t>49,58; 55,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 22,37</t>
+          <t>44,67; 50,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 21,37</t>
+          <t>34,94; 40,27</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>43,6%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,52</t>
+          <t>39,6; 48,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 25,55</t>
+          <t>45,22; 53,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,78</t>
+          <t>47,43; 55,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 23,81</t>
+          <t>29,22; 43,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 35,31</t>
+          <t>55,64; 64,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,49; 39,42</t>
+          <t>54,29; 62,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 34,17</t>
+          <t>54,3; 61,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,14</t>
+          <t>44,62; 51,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 26,54</t>
+          <t>48,91; 54,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 31,71</t>
+          <t>51,16; 57,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 29,22</t>
+          <t>51,91; 57,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,05</t>
+          <t>38,51; 46,45</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>51,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>66,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>59,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>50,59%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 29,05</t>
+          <t>49,4; 59,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,77; 31,94</t>
+          <t>46,62; 56,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 25,08</t>
+          <t>42,35; 52,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,13</t>
+          <t>42,52; 50,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,2; 37,84</t>
+          <t>53,48; 63,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,61; 44,38</t>
+          <t>61,66; 71,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 38,45</t>
+          <t>55,42; 64,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,21; 34,56</t>
+          <t>51,85; 58,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,95; 32,23</t>
+          <t>52,95; 60,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,01; 36,7</t>
+          <t>55,56; 62,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,05; 31,09</t>
+          <t>50,25; 57,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,27</t>
+          <t>48,01; 53,13</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>58,11%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 31,35</t>
+          <t>50,22; 58,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,04; 32,24</t>
+          <t>47,35; 55,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,48; 25,98</t>
+          <t>45,39; 53,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,5; 30,98</t>
+          <t>47,34; 53,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,2; 35,03</t>
+          <t>49,78; 57,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,17; 45,36</t>
+          <t>61,45; 68,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,43; 40,82</t>
+          <t>55,05; 62,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,22; 61,97</t>
+          <t>58,13; 75,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,75; 32,0</t>
+          <t>50,95; 56,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 38,7</t>
+          <t>56,24; 61,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,27; 33,54</t>
+          <t>51,88; 57,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,11; 50,35</t>
+          <t>54,39; 67,53</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 20,03</t>
+          <t>40,69; 44,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,91; 23,98</t>
+          <t>44,24; 47,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,15</t>
+          <t>44,32; 47,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,44</t>
+          <t>36,85; 41,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,0; 28,09</t>
+          <t>51,52; 54,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,02; 34,14</t>
+          <t>56,09; 59,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,2; 28,42</t>
+          <t>51,28; 54,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,28; 36,69</t>
+          <t>47,94; 55,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,59; 23,76</t>
+          <t>46,56; 49,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,56; 28,73</t>
+          <t>50,9; 53,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,05</t>
+          <t>48,46; 50,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,06</t>
+          <t>43,35; 47,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>31,64%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 35,1</t>
+          <t>27,9; 36,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,51; 38,08</t>
+          <t>30,96; 39,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,51; 37,8</t>
+          <t>28,86; 38,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 32,5</t>
+          <t>18,75; 33,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,58; 46,64</t>
+          <t>38,46; 47,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,89; 49,46</t>
+          <t>44,02; 54,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,05; 47,61</t>
+          <t>39,12; 48,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,26; 43,98</t>
+          <t>31,74; 46,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 39,24</t>
+          <t>34,44; 40,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,68; 42,16</t>
+          <t>38,67; 45,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,61; 41,31</t>
+          <t>35,48; 42,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,26; 35,98</t>
+          <t>26,12; 37,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 37,18</t>
+          <t>30,88; 38,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,08; 45,48</t>
+          <t>40,4; 48,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,87; 49,19</t>
+          <t>41,81; 50,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 37,4</t>
+          <t>28,01; 39,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,03; 50,88</t>
+          <t>44,54; 52,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,98; 55,15</t>
+          <t>51,18; 59,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,65; 50,58</t>
+          <t>45,24; 53,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 46,45</t>
+          <t>37,69; 66,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,28; 42,7</t>
+          <t>38,4; 43,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,51; 49,15</t>
+          <t>46,93; 52,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,7; 48,52</t>
+          <t>44,47; 50,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,43; 40,54</t>
+          <t>35,4; 55,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,29; 46,68</t>
+          <t>39,3; 47,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,48; 51,67</t>
+          <t>46,74; 54,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,71</t>
+          <t>44,05; 51,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,25; 38,65</t>
+          <t>31,94; 40,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,56; 61,28</t>
+          <t>54,41; 62,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,84; 60,59</t>
+          <t>59,84; 67,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,05; 51,93</t>
+          <t>45,72; 53,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,65; 44,42</t>
+          <t>40,78; 47,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,8; 53,15</t>
+          <t>48,4; 53,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,58; 55,18</t>
+          <t>54,9; 60,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,67; 50,15</t>
+          <t>46,15; 51,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,94; 40,27</t>
+          <t>37,3; 42,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>64,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54,88%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>39,94%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,6; 48,44</t>
+          <t>40,79; 49,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,22; 53,82</t>
+          <t>49,53; 58,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,43; 55,25</t>
+          <t>49,03; 57,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,22; 43,41</t>
+          <t>14,37; 45,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 64,6</t>
+          <t>58,39; 67,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,29; 62,71</t>
+          <t>59,76; 67,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,3; 61,93</t>
+          <t>56,92; 64,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,62; 51,57</t>
+          <t>40,5; 53,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,91; 54,94</t>
+          <t>50,71; 56,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,16; 57,1</t>
+          <t>56,16; 62,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,91; 57,91</t>
+          <t>54,1; 60,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,51; 46,45</t>
+          <t>24,18; 48,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>58,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>62,07%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>53,06%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,4; 59,16</t>
+          <t>50,77; 60,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,62; 56,34</t>
+          <t>49,94; 59,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,35; 52,29</t>
+          <t>46,97; 56,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,52; 50,18</t>
+          <t>45,33; 52,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,48; 63,84</t>
+          <t>53,58; 63,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,66; 71,27</t>
+          <t>63,95; 73,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,42; 64,62</t>
+          <t>57,1; 66,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 58,23</t>
+          <t>53,85; 60,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,95; 60,1</t>
+          <t>53,56; 60,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,56; 62,76</t>
+          <t>58,69; 65,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,25; 57,26</t>
+          <t>53,5; 60,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,01; 53,13</t>
+          <t>50,42; 55,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>62,23%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,67</t>
+          <t>48,53; 59,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,35; 55,89</t>
+          <t>44,58; 56,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,39; 53,61</t>
+          <t>45,1; 56,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 53,68</t>
+          <t>45,05; 53,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,78; 57,93</t>
+          <t>51,65; 62,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,45; 68,72</t>
+          <t>59,47; 69,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,05; 62,38</t>
+          <t>53,15; 63,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,13; 75,92</t>
+          <t>54,16; 89,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,95; 56,64</t>
+          <t>52,02; 59,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,24; 61,91</t>
+          <t>54,24; 62,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,88; 57,71</t>
+          <t>51,01; 58,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,39; 67,53</t>
+          <t>51,12; 80,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>60,37%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,69; 44,15</t>
+          <t>47,96; 61,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,24; 47,94</t>
+          <t>50,66; 63,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,32; 47,76</t>
+          <t>48,79; 60,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,85; 41,2</t>
+          <t>50,31; 60,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,52; 54,91</t>
+          <t>44,64; 56,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,09; 59,58</t>
+          <t>63,37; 73,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,28; 54,76</t>
+          <t>54,0; 65,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,94; 55,42</t>
+          <t>60,15; 67,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,56; 49,1</t>
+          <t>47,56; 56,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,9; 53,25</t>
+          <t>60,18; 67,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>48,46; 50,91</t>
+          <t>53,64; 62,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,35; 47,51</t>
+          <t>57,71; 63,02</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38,64%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>54,18%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>61,86%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>54,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>48,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51,57%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>41,5; 44,95</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>47,21; 50,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>46,25; 49,64</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 42,17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52,49; 55,96</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60,19; 63,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>52,98; 56,51</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49,96; 62,24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>47,5; 49,99</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54,36; 56,72</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>50,28; 52,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>42,13; 50,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,9; 36,49</t>
+          <t>28,42; 36,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,96; 39,74</t>
+          <t>30,92; 39,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,86; 38,33</t>
+          <t>29,04; 38,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,75; 33,74</t>
+          <t>19,01; 33,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 47,65</t>
+          <t>38,21; 47,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,02; 54,2</t>
+          <t>44,41; 53,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,12; 48,66</t>
+          <t>39,34; 49,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 46,69</t>
+          <t>31,76; 46,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,44; 40,5</t>
+          <t>34,46; 40,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,67; 45,24</t>
+          <t>38,75; 45,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,48; 42,19</t>
+          <t>34,98; 42,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 37,25</t>
+          <t>26,45; 37,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,88; 38,11</t>
+          <t>30,74; 37,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,4; 48,03</t>
+          <t>40,59; 48,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,81; 50,48</t>
+          <t>42,01; 49,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,01; 39,61</t>
+          <t>28,18; 39,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 52,49</t>
+          <t>44,7; 52,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 59,39</t>
+          <t>51,46; 59,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,24; 53,3</t>
+          <t>44,53; 52,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,69; 66,94</t>
+          <t>38,0; 67,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,4; 43,77</t>
+          <t>38,18; 43,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,93; 52,53</t>
+          <t>46,85; 52,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 50,39</t>
+          <t>44,58; 50,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,4; 55,68</t>
+          <t>35,63; 55,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,3; 47,45</t>
+          <t>39,79; 47,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,74; 54,91</t>
+          <t>46,95; 54,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,05; 51,97</t>
+          <t>44,17; 51,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,94; 40,42</t>
+          <t>31,75; 40,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,41; 62,05</t>
+          <t>54,31; 61,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,84; 67,24</t>
+          <t>59,77; 67,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,72; 53,43</t>
+          <t>45,5; 53,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,78; 47,65</t>
+          <t>40,56; 47,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,4; 53,88</t>
+          <t>48,23; 53,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,9; 60,12</t>
+          <t>54,45; 60,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,15; 51,65</t>
+          <t>45,8; 51,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,3; 42,9</t>
+          <t>37,32; 43,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,79; 49,59</t>
+          <t>40,63; 49,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,53; 58,15</t>
+          <t>49,34; 58,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,03; 57,23</t>
+          <t>49,46; 57,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 45,7</t>
+          <t>13,59; 45,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,39; 67,03</t>
+          <t>57,98; 66,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 67,84</t>
+          <t>59,75; 68,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,92; 64,26</t>
+          <t>56,54; 64,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,5; 53,42</t>
+          <t>41,71; 53,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,71; 56,69</t>
+          <t>50,54; 56,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,16; 62,02</t>
+          <t>56,05; 61,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,1; 60,02</t>
+          <t>54,22; 59,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,27</t>
+          <t>22,68; 48,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,77; 60,35</t>
+          <t>51,13; 61,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,94; 59,84</t>
+          <t>50,15; 60,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,97; 56,72</t>
+          <t>46,82; 56,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,33; 52,98</t>
+          <t>44,78; 52,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,58; 63,85</t>
+          <t>54,07; 63,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,95; 73,35</t>
+          <t>63,65; 73,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,1; 66,08</t>
+          <t>57,16; 66,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,85; 60,04</t>
+          <t>53,81; 59,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,56; 60,8</t>
+          <t>53,63; 60,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,69; 65,43</t>
+          <t>58,48; 65,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,5; 60,4</t>
+          <t>53,81; 60,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,42; 55,59</t>
+          <t>50,49; 55,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,53; 59,52</t>
+          <t>47,75; 59,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,58; 56,12</t>
+          <t>44,24; 56,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,1; 56,44</t>
+          <t>45,11; 56,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,05; 53,15</t>
+          <t>44,32; 52,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,65; 62,3</t>
+          <t>52,17; 62,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,47; 69,84</t>
+          <t>59,81; 69,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,15; 63,87</t>
+          <t>53,61; 63,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,16; 89,61</t>
+          <t>53,58; 87,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,02; 59,39</t>
+          <t>52,11; 59,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>54,24; 62,36</t>
+          <t>54,37; 62,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,01; 58,34</t>
+          <t>51,19; 59,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>51,12; 80,77</t>
+          <t>51,3; 79,12</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,96; 61,08</t>
+          <t>48,48; 61,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,66; 63,75</t>
+          <t>50,68; 64,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,79; 60,27</t>
+          <t>48,26; 59,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,31; 60,07</t>
+          <t>50,97; 60,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,64; 56,53</t>
+          <t>44,79; 56,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,37; 73,18</t>
+          <t>63,26; 72,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,0; 65,98</t>
+          <t>54,4; 65,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,15; 67,07</t>
+          <t>60,41; 66,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,56; 56,3</t>
+          <t>47,8; 56,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,18; 67,69</t>
+          <t>59,88; 67,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>53,64; 62,17</t>
+          <t>53,72; 61,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,71; 63,02</t>
+          <t>57,53; 63,05</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,5; 44,95</t>
+          <t>41,41; 44,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,21; 50,81</t>
+          <t>47,28; 50,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,25; 49,64</t>
+          <t>46,4; 49,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,1; 42,17</t>
+          <t>28,37; 42,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,49; 55,96</t>
+          <t>52,47; 55,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,19; 63,62</t>
+          <t>60,19; 63,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,98; 56,51</t>
+          <t>53,1; 56,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,96; 62,24</t>
+          <t>50,04; 61,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,5; 49,99</t>
+          <t>47,59; 50,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,36; 56,72</t>
+          <t>54,27; 56,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,76</t>
+          <t>50,42; 52,82</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>42,13; 50,57</t>
+          <t>41,95; 50,83</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>159550</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>160253</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>140581</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103184</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>200602</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>210948</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>174036</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>360152</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>371201</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>314617</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>225184</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>140429; 180921</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>140438; 180513</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>121804; 161168</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76018; 134921</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>178646; 220414</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>191075; 232027</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>155671; 194672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>98972; 146168</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>331308; 390130</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>342731; 401964</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>285171; 343066</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>188204; 269073</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>253359</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>304642</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>271021</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>143406</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>304052</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>339228</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>277381</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>244013</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>557411</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>643871</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>548402</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>387419</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>226060; 278843</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>278908; 332454</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>248080; 294905</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>119350; 169021</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>279582; 331441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>314021; 364228</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>250945; 298620</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>194175; 346776</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>519621; 594422</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>607766; 682615</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>514523; 584234</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>332972; 515184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>278847</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>346725</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>321857</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>193411</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>401186</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>453335</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>328003</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>238605</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>680033</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>800059</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>649860</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>432016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>254122; 302328</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>320139; 372448</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>295524; 346899</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>169975; 215779</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>374629; 427406</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>424844; 478815</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>300904; 352862</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>219712; 256218</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>640673; 716116</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>758290; 837582</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>609309; 682872</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>402009; 463331</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>234910</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>331367</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>344176</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>283870</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>322125</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>394632</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>393186</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>353174</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>557035</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>725999</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>737362</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>637044</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>210914; 256654</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>303279; 357153</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>319546; 372329</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>120392; 404851</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>298972; 343456</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>368154; 419090</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>366991; 417327</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>295832; 381070</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>522955; 588922</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>689841; 762897</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>702194; 772804</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>361775; 765610</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>216295</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>236263</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>247580</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>273344</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>238203</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>308224</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>307416</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>310590</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>454498</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>544488</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>554996</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>583934</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>197741; 236626</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>215348; 258342</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>223775; 269732</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>248523; 293722</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>218454; 257927</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>285006; 327626</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>283991; 331472</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>293567; 327291</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>424081; 480553</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>513006; 571204</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>524551; 590319</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>555672; 614742</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>158429</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>156866</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>169614</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>178299</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>195915</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>229643</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>221838</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>425624</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>354344</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>386509</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>391452</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>603923</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>139721; 175148</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>137063; 174701</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>150808; 188806</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>161215; 192558</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>178894; 212688</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>211708; 246566</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>202519; 240738</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>325047; 529222</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>331142; 378096</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>360931; 414002</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>364485; 420346</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>497787; 767784</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>114723</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>143077</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>139602</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>155029</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>168814</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>265313</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>241997</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>266424</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>283537</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>408389</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>381599</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>421453</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>101754; 128512</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>126614; 160651</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>124036; 153326</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>142916; 168795</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>149550; 187769</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>246079; 283176</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>217675; 262742</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>252334; 279537</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>259941; 306537</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>382548; 432945</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>353023; 405896</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>401602; 440165</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1416113</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1679193</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1634431</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1330544</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1830898</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2201324</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1943857</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1960429</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3247011</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3880516</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3578287</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3290973</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1356877; 1473889</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1620190; 1738378</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1575082; 1691855</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>976902; 1447636</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1773088; 1890301</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2141823; 2259257</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1882208; 2005086</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1823309; 2243155</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3167492; 3328852</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3790831; 3959656</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3498469; 3664912</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2972898; 3602461</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>